--- a/biology/Neurosciences/Nerf_spinal/Nerf_spinal.xlsx
+++ b/biology/Neurosciences/Nerf_spinal/Nerf_spinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les nerfs spinaux (ou nerfs rachidiens ou nerfs radiculaires ou funicules vertébraux de Sicard) sont les nerfs qui émergent de la moelle spinale (par opposition aux nerfs crâniens qui naissent du tronc cérébral). Ce sont des nerfs mixtes responsables de la motricité et de la sensibilité des membres, et d'une partie du tronc. 
@@ -512,17 +524,53 @@
           <t>Nerfs spinaux chez l'être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'être humain possède 31 paires de nerfs spinaux, identifiés chacun par une lettre et un nombre (excepté le nerf coccygien, qui est identifié par deux lettres) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'être humain possède 31 paires de nerfs spinaux, identifiés chacun par une lettre et un nombre (excepté le nerf coccygien, qui est identifié par deux lettres) :
 8 nerfs cervicaux (C1 à C8), à noter que le 1er nerf rachidien cervical naît au-dessus de C1, et le 8e nerf rachidien en dessous de C7 ;
 12 nerfs thoraciques (T1 à T12) ;
 5 nerfs lombaires (L1 à L5) ;
 5 nerfs sacrés (S1 à S5) ;
-1 nerf coccygien (Co), qui est vestigial.
-Racines des nerfs spinaux
-Chaque nerf spinal est formé par la réunion de deux racines rachidiennes, l'une dorsale sensitive et l'autre ventrale motrice. Il s'agit donc d'une voie nerveuse mixte (nerfs sensitifs et moteurs). Les deux racines spinales comportent aussi des fibres nerveuses végétatives sympathiques, respectivement viscérosensitives et viscéromotrices.
-Les racines spinales dorsales présentent un renflement appelé ganglion spinal dans lequel se trouvent les corps cellulaires des neurones sensitifs pseudo-unipolaires. Chaque ganglion reçoit des afférences d'un territoire cutané[1] délimité sur la surface du corps, ces territoires sont organisés en bandes plus ou moins parallèles, appelées dermatomes sensitifs.
+1 nerf coccygien (Co), qui est vestigial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerf_spinal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_spinal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nerfs spinaux chez l'être humain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Racines des nerfs spinaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chaque nerf spinal est formé par la réunion de deux racines rachidiennes, l'une dorsale sensitive et l'autre ventrale motrice. Il s'agit donc d'une voie nerveuse mixte (nerfs sensitifs et moteurs). Les deux racines spinales comportent aussi des fibres nerveuses végétatives sympathiques, respectivement viscérosensitives et viscéromotrices.
+Les racines spinales dorsales présentent un renflement appelé ganglion spinal dans lequel se trouvent les corps cellulaires des neurones sensitifs pseudo-unipolaires. Chaque ganglion reçoit des afférences d'un territoire cutané délimité sur la surface du corps, ces territoires sont organisés en bandes plus ou moins parallèles, appelées dermatomes sensitifs.
 Les racines spinales ventrales sont formées par les axones des motoneurones spinaux qui participent notamment à l'arc réflexe médullaire. Les faisceaux musculaires innervés par ces neurones constituent ce qu'on appelle le myotome.
 Plus généralement, à chaque nerf spinal est associé un segment vertébral ou neuromère qui désigne le territoire anatomique d'influence de ce nerf, c'est-à-dire, la zone du corps innervée par ce nerf à partir de son émergence vertébrale. 
 Dans le domaine de la somesthésie cutanée, le segment rachidien est donc le dermatome sensitif.
@@ -530,9 +578,43 @@
 Le viscérotome (ou entérotome) désigne les viscères innervées par ce nerf.
 Le sclérotome aux éléments du squelette innervés par ce nerf.
 L'angiotome correspond aux vaisseaux sanguins innervés par le nerf spinal.
-Le neurotome désigne les tissus nerveux constitués par le nerf spinal et les fibres nerveuses végétatives qui lui sont associés.
-Émergence des nerfs spinaux
-Le nerf spinal émerge de la colonne vertébrale, entre deux vertèbres par le foramen intervertébral (ou trou de conjugaison). Les sept premiers nerfs spinaux (C1 à C7) émergent par le canal vertébral respectif, c'est-à-dire, C1 sort au-dessus de la première vertèbre cervicale, C2 au-dessus de la deuxième, etc. Le nerf spinal C8 sort lui en dessous de la septième et dernière vertèbre cervicale (C7) puis les nerfs spinaux thoraciques et lombaires émergent en dessous des vertèbres correspondantes. 
+Le neurotome désigne les tissus nerveux constitués par le nerf spinal et les fibres nerveuses végétatives qui lui sont associés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_spinal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_spinal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nerfs spinaux chez l'être humain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Émergence des nerfs spinaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf spinal émerge de la colonne vertébrale, entre deux vertèbres par le foramen intervertébral (ou trou de conjugaison). Les sept premiers nerfs spinaux (C1 à C7) émergent par le canal vertébral respectif, c'est-à-dire, C1 sort au-dessus de la première vertèbre cervicale, C2 au-dessus de la deuxième, etc. Le nerf spinal C8 sort lui en dessous de la septième et dernière vertèbre cervicale (C7) puis les nerfs spinaux thoraciques et lombaires émergent en dessous des vertèbres correspondantes. 
 Chaque nerf spinal se divise ensuite en deux rameaux : un rameau dorsal qui innerve les téguments et les muscles du dos et un rameau ventral, plus gros (sauf pour C1 et C2 dont les rameaux dorsaux ont un calibre plus important), qui innerve la peau et les muscles de la face ventrale du corps et des membres. Les deux rameaux primaires eux-mêmes se subdivisent en branches secondaires : le rameau dorsal en une branche latérale et une branche médiale, et le rameau ventral en une branche antérieure et une branche latérale. 
 Certains rameaux ventraux primaires s'anastomosent pour former des plexus nerveux :
 le plexus cervical (C1-C4) innerve le cou, la région péri-auriculaire, la partie postérieure du scalp, la partie supérieure du thorax et le diaphragme ;
@@ -548,34 +630,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nerf_spinal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nerf_spinal</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nerfs spinaux chez la grenouille
-La grenouille possède dix nerfs spinaux dont le nerf brachial (nerf II) qui irrigue la patte antérieure et le nerf sciatique (nerf IX) qui irrigue la patte postérieure.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nerfs spinaux chez la grenouille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grenouille possède dix nerfs spinaux dont le nerf brachial (nerf II) qui irrigue la patte antérieure et le nerf sciatique (nerf IX) qui irrigue la patte postérieure.
 </t>
         </is>
       </c>
